--- a/Django.xlsx
+++ b/Django.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROWTECH\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1242693-39F0-4931-92FF-CD99A6CB0D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAFF155-59EE-439B-990D-4BC9163D8CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0FFEE4F1-0908-4232-AD41-10A73D286687}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Let's separate the whole Django into two part, backend and api</t>
   </si>
@@ -79,15 +79,58 @@
   </si>
   <si>
     <t xml:space="preserve"> py manage.py createsuperuser</t>
+  </si>
+  <si>
+    <t>{% block block_name %} default content {% endblock %}</t>
+  </si>
+  <si>
+    <t>{% extends 'base.html' %}   ----&gt;&gt;&gt;&gt;   template inherits</t>
+  </si>
+  <si>
+    <t>{% include 'file.html' %}   ----&gt;&gt;&gt;&gt; reusable snippits</t>
+  </si>
+  <si>
+    <t>{% block content %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;h2&gt;Welcome to My Site&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {% if user.is_authenticated %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;p&gt;Hello, {{ user.username }}!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {% else %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;p&gt;Please &lt;a href="/login/"&gt;login&lt;/a&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {% endif %}</t>
+  </si>
+  <si>
+    <t>{% endblock %}</t>
+  </si>
+  <si>
+    <t>Condition Inside a Block</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,11 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D723068F-9FA8-4FF8-81EB-8C964E855B9A}">
-  <dimension ref="B3:E18"/>
+  <dimension ref="B3:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,11 +552,22 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
@@ -534,7 +589,56 @@
         <v>11</v>
       </c>
     </row>
+    <row r="23" spans="2:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>